--- a/file/Book1.xlsx
+++ b/file/Book1.xlsx
@@ -16,20 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,199 +358,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
